--- a/Country_Data/Destination_Romania-2019.xlsx
+++ b/Country_Data/Destination_Romania-2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Sufficient-strategies-for-travel-quarantine-and-testing\Country_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA8EF35-D27F-4A79-8C3B-B7D1871A74B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA6E3B8-0311-443F-9946-F4EC140FFC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3690" yWindow="2655" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>European Countries - Nights and arrivals - Annual data</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>Canada</t>
-  </si>
-  <si>
-    <t>Country</t>
   </si>
   <si>
     <r>
@@ -389,11 +386,9 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -401,7 +396,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -410,7 +405,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -760,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -803,22 +800,22 @@
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -831,41 +828,39 @@
       <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13" t="s">
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" s="3">
         <v>2019</v>
       </c>
@@ -896,7 +891,7 @@
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>13374943</v>
@@ -916,7 +911,7 @@
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9">
         <v>10691195</v>
@@ -936,7 +931,7 @@
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10">
         <v>2683748</v>
@@ -956,7 +951,7 @@
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11">
         <v>1994241</v>
@@ -976,7 +971,7 @@
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12">
         <v>1679564</v>
@@ -1216,7 +1211,7 @@
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24">
         <v>19199</v>
@@ -1336,7 +1331,7 @@
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30">
         <v>62321</v>
@@ -1536,7 +1531,7 @@
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40">
         <v>27881</v>
@@ -1556,7 +1551,7 @@
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B41">
         <v>36062</v>
@@ -1576,7 +1571,7 @@
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42">
         <v>32219</v>
@@ -1596,7 +1591,7 @@
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43">
         <v>975</v>
@@ -1616,7 +1611,7 @@
     </row>
     <row r="44" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44">
         <v>14708</v>
@@ -1636,7 +1631,7 @@
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45">
         <v>64840</v>
@@ -1696,7 +1691,7 @@
     </row>
     <row r="48" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48">
         <v>31204</v>
@@ -1716,7 +1711,7 @@
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B49">
         <v>361329</v>
@@ -1736,7 +1731,7 @@
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B50">
         <v>41928</v>
@@ -1756,7 +1751,7 @@
     </row>
     <row r="51" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51">
         <v>235128</v>
@@ -1776,7 +1771,7 @@
     </row>
     <row r="52" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>13867</v>
@@ -1796,7 +1791,7 @@
     </row>
     <row r="53" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B53">
         <v>70406</v>
@@ -1816,7 +1811,7 @@
     </row>
     <row r="54" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B54">
         <v>208112</v>
@@ -1841,22 +1836,22 @@
       <c r="B55">
         <v>24585</v>
       </c>
-      <c r="D55" s="20"/>
+      <c r="D55" s="13"/>
       <c r="E55">
         <v>49206</v>
       </c>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
       <c r="H55" s="6">
         <f t="shared" si="0"/>
         <v>2.0014643075045759</v>
       </c>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56">
         <v>161898</v>
@@ -1871,7 +1866,7 @@
     </row>
     <row r="57" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>4714</v>
@@ -1886,7 +1881,7 @@
     </row>
     <row r="58" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B58">
         <v>16915</v>
@@ -1901,7 +1896,7 @@
     </row>
     <row r="59" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B59">
         <v>20036</v>
@@ -1916,7 +1911,7 @@
     </row>
     <row r="60" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B60">
         <v>20351</v>
@@ -1931,7 +1926,7 @@
     </row>
     <row r="61" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B61">
         <v>79679</v>
